--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J33"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>User</t>
   </si>
@@ -67,24 +66,9 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>mngr22018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nAgezam </t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Tester01</t>
-  </si>
-  <si>
-    <t>Tester02</t>
-  </si>
-  <si>
-    <t>Manger Id : mngr22018</t>
-  </si>
-  <si>
     <t>Customer Registered Successfully!!!</t>
   </si>
   <si>
@@ -103,22 +87,7 @@
     <t>you</t>
   </si>
   <si>
-    <t>User or Password is not valid</t>
-  </si>
-  <si>
-    <t>User-ID must not be blank</t>
-  </si>
-  <si>
-    <t>Password must not be blank</t>
-  </si>
-  <si>
     <t>CN02</t>
-  </si>
-  <si>
-    <t>LO03</t>
-  </si>
-  <si>
-    <t>LO02</t>
   </si>
   <si>
     <t>ED03</t>
@@ -141,24 +110,45 @@
 Password must not be blank</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>bingbong41@gmail.com</t>
   </si>
   <si>
     <t>you54@gmail.com</t>
+  </si>
+  <si>
+    <t>TC02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>diuttm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ddduong123*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,8 +156,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -573,24 +570,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -599,22 +596,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -622,89 +619,22 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -718,44 +648,44 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.25" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="121.5">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -785,12 +715,12 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
@@ -805,26 +735,26 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1">
@@ -846,6 +776,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
@@ -862,17 +793,17 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
@@ -896,12 +827,12 @@
         <v>10</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -919,18 +850,19 @@
         <v>587461</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13905" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13905" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="CreateNewCustomer" sheetId="2" r:id="rId2"/>
+    <sheet name="ISMSType" sheetId="2" r:id="rId2"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>User</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DoB</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>10-10-1991</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -51,12 +42,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Hanoi</t>
-  </si>
-  <si>
     <t>Nam Dinh</t>
   </si>
   <si>
@@ -69,51 +54,16 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Customer Registered Successfully!!!</t>
-  </si>
-  <si>
-    <t>201365</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>Customer details updated Successfully!!!</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>CN02</t>
-  </si>
-  <si>
     <t>ED03</t>
   </si>
   <si>
     <t>86067</t>
   </si>
   <si>
-    <t>CN03</t>
-  </si>
-  <si>
-    <t>Customer name must not be blank
-Date Field must not be blank
-Address Field must not be blank
-City Field must not be blank
-State must not be blank
-PIN Code must not be blank
-Mobile no must not be blank
-Email-ID must not be blank
-Password must not be blank</t>
-  </si>
-  <si>
     <t>bingbong41@gmail.com</t>
-  </si>
-  <si>
-    <t>you54@gmail.com</t>
   </si>
   <si>
     <t>TC02</t>
@@ -138,6 +88,42 @@
   <si>
     <t>12345678</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Assign To</t>
+  </si>
+  <si>
+    <t>Tran Thi Minh Diu</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>Assign To 2</t>
   </si>
 </sst>
 </file>
@@ -148,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,19 +142,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,19 +215,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,17 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,22 +539,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -597,21 +564,21 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -621,16 +588,16 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -642,146 +609,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.25" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="121.5">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="B8" s="6">
+        <v>67743</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="C3" s="1" t="s">
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1">
-      <c r="B13" s="9">
-        <v>67743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1">
-      <c r="C14" s="8" t="s">
-        <v>15</v>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -793,72 +808,72 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>652105</v>
+      </c>
+      <c r="G2" s="3">
+        <v>587461</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="J3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5">
-        <v>652105</v>
-      </c>
-      <c r="G2" s="5">
-        <v>587461</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="J3" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
